--- a/pdTwo/src/main/resources/csv/item.xlsx
+++ b/pdTwo/src/main/resources/csv/item.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdade\Downloads\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>title</t>
   </si>
@@ -135,12 +135,16 @@
   </si>
   <si>
     <t>Illmatic</t>
+  </si>
+  <si>
+    <t>Screem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -506,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8515C3-1D23-45F3-BE52-0B0AAE1BAADA}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -514,10 +518,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="29.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -574,6 +578,9 @@
       <c r="H2" t="s">
         <v>23</v>
       </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -600,6 +607,9 @@
       <c r="H3" t="s">
         <v>23</v>
       </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -732,6 +742,14 @@
       </c>
       <c r="I8">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/pdTwo/src/main/resources/csv/item.xlsx
+++ b/pdTwo/src/main/resources/csv/item.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>title</t>
   </si>

--- a/pdTwo/src/main/resources/csv/item.xlsx
+++ b/pdTwo/src/main/resources/csv/item.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>title</t>
   </si>

--- a/pdTwo/src/main/resources/csv/item.xlsx
+++ b/pdTwo/src/main/resources/csv/item.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>title</t>
   </si>

--- a/pdTwo/src/main/resources/csv/item.xlsx
+++ b/pdTwo/src/main/resources/csv/item.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>title</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>Screem</t>
+  </si>
+  <si>
+    <t>Cyclic Item</t>
+  </si>
+  <si>
+    <t>New Item</t>
+  </si>
+  <si>
+    <t>Existing Item</t>
+  </si>
+  <si>
+    <t>Test Item</t>
   </si>
 </sst>
 </file>
@@ -510,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8515C3-1D23-45F3-BE52-0B0AAE1BAADA}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -752,6 +764,33 @@
         <v>33</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>998.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pdTwo/src/main/resources/csv/item.xlsx
+++ b/pdTwo/src/main/resources/csv/item.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
   <si>
     <t>title</t>
   </si>

--- a/pdTwo/src/main/resources/csv/item.xlsx
+++ b/pdTwo/src/main/resources/csv/item.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
   <si>
     <t>title</t>
   </si>
